--- a/medicine/Pharmacie/Certificat_de_conformité_à_la_pharmacopée_européenne/Certificat_de_conformité_à_la_pharmacopée_européenne.xlsx
+++ b/medicine/Pharmacie/Certificat_de_conformité_à_la_pharmacopée_européenne/Certificat_de_conformité_à_la_pharmacopée_européenne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Certificat_de_conformit%C3%A9_%C3%A0_la_pharmacop%C3%A9e_europ%C3%A9enne</t>
+          <t>Certificat_de_conformité_à_la_pharmacopée_européenne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un certificat de conformité à la pharmacopée européenne aussi appelé CEP est un document édité par la DEQM (direction européenne de la qualité du médicament) et qui certifie qu'une substance à but pharmaceutique est bien fabriquée et contrôlée selon la monographie équivalente de la pharmacopée européenne.
 Il existe un deuxième type de CEP, dit CEP TSE qui confirme que la substance impliquée est conforme à la monographie relative aux risques d'encéphalopathie spongiforme animale transmissible.
@@ -498,7 +510,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Certificat_de_conformit%C3%A9_%C3%A0_la_pharmacop%C3%A9e_europ%C3%A9enne</t>
+          <t>Certificat_de_conformité_à_la_pharmacopée_européenne</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -516,7 +528,9 @@
           <t>Autre</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il existe un document assez semblable : le Drug Master File ou Active Substance Master File, qui est également obtenu par le fabricant d'une substance active et qui contient des informations sur le mode de fabrication de cette substance et sur sa qualité. Mais le DMF n'est pas directement basé sur une monographie de la Pharmacopée Européenne et n'est jamais évalué en tant que tel : il est toujours déposé en même temps qu'un dossier de demande d'autorisation sur le marché d'un médicament et est évalué à chaque fois. 
 </t>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Certificat_de_conformit%C3%A9_%C3%A0_la_pharmacop%C3%A9e_europ%C3%A9enne</t>
+          <t>Certificat_de_conformité_à_la_pharmacopée_européenne</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">(en) https://www.edqm.eu/fr/nouvelles-demandes-cep-DEQM-29.html CEP - site de la DEQM]
  Portail de la pharmacie   Portail de la médecine                    </t>
